--- a/outcome/simulate data/B_Syphilis.xlsx
+++ b/outcome/simulate data/B_Syphilis.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>57235.3840942972</v>
+        <v>65437.5691214725</v>
       </c>
       <c r="C2" t="n">
-        <v>40169.6866765855</v>
+        <v>55189.5198213285</v>
       </c>
       <c r="D2" t="n">
-        <v>32796.537237098</v>
+        <v>50837.1682451915</v>
       </c>
       <c r="E2" t="n">
-        <v>90332.1159134804</v>
+        <v>82176.8440274347</v>
       </c>
       <c r="F2" t="n">
-        <v>101116.87783762</v>
+        <v>88735.8825171343</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>58052.6908591482</v>
+        <v>67721.338746997</v>
       </c>
       <c r="C3" t="n">
-        <v>40846.2805233939</v>
+        <v>55848.6201542545</v>
       </c>
       <c r="D3" t="n">
-        <v>33342.5841505178</v>
+        <v>53005.5438100203</v>
       </c>
       <c r="E3" t="n">
-        <v>92495.8192551352</v>
+        <v>85635.9824462449</v>
       </c>
       <c r="F3" t="n">
-        <v>103566.857337073</v>
+        <v>92465.16295334</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>58323.005838174</v>
+        <v>67775.3817882867</v>
       </c>
       <c r="C4" t="n">
-        <v>40084.1203565957</v>
+        <v>55958.4454622171</v>
       </c>
       <c r="D4" t="n">
-        <v>32450.4409336806</v>
+        <v>52437.0583057454</v>
       </c>
       <c r="E4" t="n">
-        <v>93288.840097242</v>
+        <v>86385.5424554429</v>
       </c>
       <c r="F4" t="n">
-        <v>104648.73415678</v>
+        <v>93490.5749309538</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>56215.7190203703</v>
+        <v>65939.0083636403</v>
       </c>
       <c r="C5" t="n">
-        <v>37129.9086377596</v>
+        <v>56003.7043859961</v>
       </c>
       <c r="D5" t="n">
-        <v>29366.8187922113</v>
+        <v>49168.2029808981</v>
       </c>
       <c r="E5" t="n">
-        <v>91262.2909942121</v>
+        <v>84461.7326355499</v>
       </c>
       <c r="F5" t="n">
-        <v>102913.595819681</v>
+        <v>91848.2678712901</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>55910.9064176775</v>
+        <v>65595.012167155</v>
       </c>
       <c r="C6" t="n">
-        <v>36629.2151957204</v>
+        <v>55623.305158641</v>
       </c>
       <c r="D6" t="n">
-        <v>28737.2953697175</v>
+        <v>47949.669856397</v>
       </c>
       <c r="E6" t="n">
-        <v>91756.8352566333</v>
+        <v>84614.9894487692</v>
       </c>
       <c r="F6" t="n">
-        <v>103702.081397543</v>
+        <v>92288.6247510133</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>55063.7792519599</v>
+        <v>65000.8404260253</v>
       </c>
       <c r="C7" t="n">
-        <v>34585.2437320724</v>
+        <v>54484.0444289085</v>
       </c>
       <c r="D7" t="n">
-        <v>26565.0813154731</v>
+        <v>46517.7600659048</v>
       </c>
       <c r="E7" t="n">
-        <v>91282.8364235734</v>
+        <v>84581.3831895933</v>
       </c>
       <c r="F7" t="n">
-        <v>103524.530939273</v>
+        <v>92547.667552597</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>53914.4996775245</v>
+        <v>63698.7258301052</v>
       </c>
       <c r="C8" t="n">
-        <v>32869.1400544397</v>
+        <v>52307.6251450686</v>
       </c>
       <c r="D8" t="n">
-        <v>24721.3285754189</v>
+        <v>44043.1863161889</v>
       </c>
       <c r="E8" t="n">
-        <v>90725.4053991595</v>
+        <v>83531.4182919611</v>
       </c>
       <c r="F8" t="n">
-        <v>103266.032566944</v>
+        <v>91795.8571208409</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>54315.4117120105</v>
+        <v>65087.5014997653</v>
       </c>
       <c r="C9" t="n">
-        <v>33537.0028943423</v>
+        <v>53687.1924615419</v>
       </c>
       <c r="D9" t="n">
-        <v>25262.1152802969</v>
+        <v>45119.1330335004</v>
       </c>
       <c r="E9" t="n">
-        <v>92556.2821045437</v>
+        <v>86058.0915377844</v>
       </c>
       <c r="F9" t="n">
-        <v>105398.304090311</v>
+        <v>94626.1509658259</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>52844.4356404108</v>
+        <v>61260.2039092318</v>
       </c>
       <c r="C10" t="n">
-        <v>30962.6122700605</v>
+        <v>48257.0020414814</v>
       </c>
       <c r="D10" t="n">
-        <v>22561.2784830279</v>
+        <v>39379.8912002959</v>
       </c>
       <c r="E10" t="n">
-        <v>90605.8384990507</v>
+        <v>81795.5251507124</v>
       </c>
       <c r="F10" t="n">
-        <v>103751.69599331</v>
+        <v>90672.6359918979</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>59332.4677481024</v>
+        <v>70142.7390618551</v>
       </c>
       <c r="C11" t="n">
-        <v>38950.3653908848</v>
+        <v>55568.4809357704</v>
       </c>
       <c r="D11" t="n">
-        <v>30423.1930225446</v>
+        <v>50187.2160337669</v>
       </c>
       <c r="E11" t="n">
-        <v>100474.346335481</v>
+        <v>94105.3229073324</v>
       </c>
       <c r="F11" t="n">
-        <v>113926.459157255</v>
+        <v>103296.884280844</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>57699.6148510308</v>
+        <v>68750.7045524548</v>
       </c>
       <c r="C12" t="n">
-        <v>36755.5507927306</v>
+        <v>55636.1814604354</v>
       </c>
       <c r="D12" t="n">
-        <v>28103.150836919</v>
+        <v>47398.1407824254</v>
       </c>
       <c r="E12" t="n">
-        <v>99277.1042873656</v>
+        <v>92844.3825241857</v>
       </c>
       <c r="F12" t="n">
-        <v>113037.871958284</v>
+        <v>102355.765183903</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>60189.3625583029</v>
+        <v>71206.5502012277</v>
       </c>
       <c r="C13" t="n">
-        <v>39338.0641941557</v>
+        <v>56238.3973928636</v>
       </c>
       <c r="D13" t="n">
-        <v>30561.0504712661</v>
+        <v>49683.9811983437</v>
       </c>
       <c r="E13" t="n">
-        <v>103267.686216409</v>
+        <v>96683.8988618362</v>
       </c>
       <c r="F13" t="n">
-        <v>117339.488507095</v>
+        <v>106520.448260418</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>59607.7153300131</v>
+        <v>69948.001733587</v>
       </c>
       <c r="C14" t="n">
-        <v>38078.4181670936</v>
+        <v>55909.6362945565</v>
       </c>
       <c r="D14" t="n">
-        <v>29177.4067862319</v>
+        <v>47077.8892103529</v>
       </c>
       <c r="E14" t="n">
-        <v>102974.513402926</v>
+        <v>95656.9164564368</v>
       </c>
       <c r="F14" t="n">
-        <v>117359.710853578</v>
+        <v>105823.955570471</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>60404.769046002</v>
+        <v>72099.3930480585</v>
       </c>
       <c r="C15" t="n">
-        <v>38745.6344675062</v>
+        <v>56579.499866622</v>
       </c>
       <c r="D15" t="n">
-        <v>29721.2433239285</v>
+        <v>49056.5966373819</v>
       </c>
       <c r="E15" t="n">
-        <v>105193.869536519</v>
+        <v>99240.0722045697</v>
       </c>
       <c r="F15" t="n">
-        <v>119894.803953428</v>
+        <v>109742.904144477</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>60611.1842588598</v>
+        <v>72165.2048114521</v>
       </c>
       <c r="C16" t="n">
-        <v>37974.8619243424</v>
+        <v>56509.4493847425</v>
       </c>
       <c r="D16" t="n">
-        <v>28827.7102298917</v>
+        <v>48299.668790987</v>
       </c>
       <c r="E16" t="n">
-        <v>106042.05905864</v>
+        <v>100112.848038376</v>
       </c>
       <c r="F16" t="n">
-        <v>121061.053988235</v>
+        <v>110956.758464211</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>58493.5222799124</v>
+        <v>70329.0150766431</v>
       </c>
       <c r="C17" t="n">
-        <v>35012.7690940746</v>
+        <v>56033.7293098061</v>
       </c>
       <c r="D17" t="n">
-        <v>25743.4769385003</v>
+        <v>44843.4699477398</v>
       </c>
       <c r="E17" t="n">
-        <v>104070.208171365</v>
+        <v>98311.5355608806</v>
       </c>
       <c r="F17" t="n">
-        <v>119409.569353243</v>
+        <v>109501.794922947</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>58160.8473384755</v>
+        <v>69995.7305231319</v>
       </c>
       <c r="C18" t="n">
-        <v>34504.8934309043</v>
+        <v>54980.4411533342</v>
       </c>
       <c r="D18" t="n">
-        <v>25114.0813721042</v>
+        <v>43438.5755321569</v>
       </c>
       <c r="E18" t="n">
-        <v>104618.99315421</v>
+        <v>98586.6474725745</v>
       </c>
       <c r="F18" t="n">
-        <v>120281.00895448</v>
+        <v>110128.513093752</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>57304.3847979938</v>
+        <v>69423.765572324</v>
       </c>
       <c r="C19" t="n">
-        <v>32454.4077101443</v>
+        <v>53719.8974406632</v>
       </c>
       <c r="D19" t="n">
-        <v>22942.6963915102</v>
+        <v>41821.1794257894</v>
       </c>
       <c r="E19" t="n">
-        <v>104198.789884667</v>
+        <v>98674.324196337</v>
       </c>
       <c r="F19" t="n">
-        <v>120185.731710849</v>
+        <v>110573.042211211</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>56172.1596648193</v>
+        <v>68154.9620503523</v>
       </c>
       <c r="C20" t="n">
-        <v>30732.4281850689</v>
+        <v>51422.702664625</v>
       </c>
       <c r="D20" t="n">
-        <v>21100.4379782444</v>
+        <v>39161.8955003083</v>
       </c>
       <c r="E20" t="n">
-        <v>103694.721018666</v>
+        <v>97745.1347909033</v>
       </c>
       <c r="F20" t="n">
-        <v>120008.843717251</v>
+        <v>110005.94195522</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>56657.49168373</v>
+        <v>69557.1605597011</v>
       </c>
       <c r="C21" t="n">
-        <v>31395.0305035481</v>
+        <v>52681.9423144134</v>
       </c>
       <c r="D21" t="n">
-        <v>21643.3579284827</v>
+        <v>40053.8169318751</v>
       </c>
       <c r="E21" t="n">
-        <v>105578.537682515</v>
+        <v>100392.135703411</v>
       </c>
       <c r="F21" t="n">
-        <v>122222.079920247</v>
+        <v>113020.26108595</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>55052.1156496569</v>
+        <v>65946.1824557839</v>
       </c>
       <c r="C22" t="n">
-        <v>28815.9571152077</v>
+        <v>47131.8168600848</v>
       </c>
       <c r="D22" t="n">
-        <v>18945.2445491196</v>
+        <v>34131.1502923888</v>
       </c>
       <c r="E22" t="n">
-        <v>103680.622530543</v>
+        <v>96249.5043506075</v>
       </c>
       <c r="F22" t="n">
-        <v>120655.807160375</v>
+        <v>109250.170918303</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>61596.646026458</v>
+        <v>74574.393347257</v>
       </c>
       <c r="C23" t="n">
-        <v>36799.5847710236</v>
+        <v>56462.3385076628</v>
       </c>
       <c r="D23" t="n">
-        <v>26810.4498499644</v>
+        <v>44755.5725606529</v>
       </c>
       <c r="E23" t="n">
-        <v>113601.257533783</v>
+        <v>108678.895666411</v>
       </c>
       <c r="F23" t="n">
-        <v>130910.291946382</v>
+        <v>122057.321772457</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>59980.4344707488</v>
+        <v>73194.2320401239</v>
       </c>
       <c r="C24" t="n">
-        <v>34601.1772725517</v>
+        <v>55545.4451054169</v>
       </c>
       <c r="D24" t="n">
-        <v>24494.2361564546</v>
+        <v>41784.0443217749</v>
       </c>
       <c r="E24" t="n">
-        <v>112455.751137793</v>
+        <v>107537.25487941</v>
       </c>
       <c r="F24" t="n">
-        <v>130100.827599435</v>
+        <v>121298.655663052</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>62403.2160368515</v>
+        <v>75581.1307086809</v>
       </c>
       <c r="C25" t="n">
-        <v>37180.606663173</v>
+        <v>56887.8163658962</v>
       </c>
       <c r="D25" t="n">
-        <v>26956.473784116</v>
+        <v>43887.8137050562</v>
       </c>
       <c r="E25" t="n">
-        <v>116497.686558153</v>
+        <v>111495.821066322</v>
       </c>
       <c r="F25" t="n">
-        <v>134480.98253575</v>
+        <v>125645.409772204</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>61789.0468147841</v>
+        <v>74340.613524067</v>
       </c>
       <c r="C26" t="n">
-        <v>35918.3628475605</v>
+        <v>55642.9588030641</v>
       </c>
       <c r="D26" t="n">
-        <v>25577.6506754732</v>
+        <v>41099.9695789569</v>
       </c>
       <c r="E26" t="n">
-        <v>116255.494036683</v>
+        <v>110587.679996259</v>
       </c>
       <c r="F26" t="n">
-        <v>134579.172510656</v>
+        <v>125130.669220366</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>62576.0843602726</v>
+        <v>76426.2207365673</v>
       </c>
       <c r="C27" t="n">
-        <v>36583.4458741446</v>
+        <v>56738.9289662136</v>
       </c>
       <c r="D27" t="n">
-        <v>26126.7646989203</v>
+        <v>42897.1848362346</v>
       </c>
       <c r="E27" t="n">
-        <v>118525.465855848</v>
+        <v>114289.507095556</v>
       </c>
       <c r="F27" t="n">
-        <v>137191.675621497</v>
+        <v>129231.109964123</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>62754.11880282</v>
+        <v>76495.9160518742</v>
       </c>
       <c r="C28" t="n">
-        <v>35810.9837787264</v>
+        <v>56722.0703456858</v>
       </c>
       <c r="D28" t="n">
-        <v>25238.9415077663</v>
+        <v>41958.9696128245</v>
       </c>
       <c r="E28" t="n">
-        <v>119423.914703201</v>
+        <v>115280.820373754</v>
       </c>
       <c r="F28" t="n">
-        <v>138434.790661186</v>
+        <v>130626.251660872</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>60630.7663905174</v>
+        <v>74652.3672258004</v>
       </c>
       <c r="C29" t="n">
-        <v>32847.6251962943</v>
+        <v>54076.1136053298</v>
       </c>
       <c r="D29" t="n">
-        <v>22160.8271665763</v>
+        <v>38321.6364162248</v>
       </c>
       <c r="E29" t="n">
-        <v>117501.974700349</v>
+        <v>113597.945283855</v>
       </c>
       <c r="F29" t="n">
-        <v>136859.638136844</v>
+        <v>129352.42247296</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>60312.2351695699</v>
+        <v>74323.8678968786</v>
       </c>
       <c r="C30" t="n">
-        <v>32338.8884909434</v>
+        <v>52904.4562936283</v>
       </c>
       <c r="D30" t="n">
-        <v>21537.9372947591</v>
+        <v>36735.7119996898</v>
       </c>
       <c r="E30" t="n">
-        <v>118100.329738442</v>
+        <v>113991.426350779</v>
       </c>
       <c r="F30" t="n">
-        <v>137806.888595492</v>
+        <v>130160.170644717</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>59428.4526723596</v>
+        <v>73760.8075440439</v>
       </c>
       <c r="C31" t="n">
-        <v>30287.9281412271</v>
+        <v>51525.5816778565</v>
       </c>
       <c r="D31" t="n">
-        <v>19373.4234647897</v>
+        <v>34937.3443939531</v>
       </c>
       <c r="E31" t="n">
-        <v>117729.363016006</v>
+        <v>114197.433977642</v>
       </c>
       <c r="F31" t="n">
-        <v>137786.912152581</v>
+        <v>130785.671261546</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>58295.6550929859</v>
+        <v>72507.4526557747</v>
       </c>
       <c r="C32" t="n">
-        <v>28565.8428610728</v>
+        <v>49110.0659516877</v>
       </c>
       <c r="D32" t="n">
-        <v>17538.3813352429</v>
+        <v>32097.1041908571</v>
       </c>
       <c r="E32" t="n">
-        <v>117274.204235419</v>
+        <v>113386.565522339</v>
       </c>
       <c r="F32" t="n">
-        <v>137684.825679632</v>
+        <v>130399.52728317</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>58756.1658216663</v>
+        <v>73917.2471349938</v>
       </c>
       <c r="C33" t="n">
-        <v>29228.6955599964</v>
+        <v>50250.9678393699</v>
       </c>
       <c r="D33" t="n">
-        <v>18088.8495344092</v>
+        <v>32808.0436331111</v>
       </c>
       <c r="E33" t="n">
-        <v>119206.611309744</v>
+        <v>116151.904196953</v>
       </c>
       <c r="F33" t="n">
-        <v>139972.37450265</v>
+        <v>133594.828403212</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>57227.5196339279</v>
+        <v>70403.5237697408</v>
       </c>
       <c r="C34" t="n">
-        <v>26650.2042739655</v>
+        <v>44582.4624478264</v>
       </c>
       <c r="D34" t="n">
-        <v>15398.5851634458</v>
+        <v>26704.3305030494</v>
       </c>
       <c r="E34" t="n">
-        <v>117356.973434196</v>
+        <v>112127.652781364</v>
       </c>
       <c r="F34" t="n">
-        <v>138479.935465592</v>
+        <v>130005.784726141</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>63726.5599825813</v>
+        <v>78925.0950149341</v>
       </c>
       <c r="C35" t="n">
-        <v>34634.7345069807</v>
+        <v>55466.198061289</v>
       </c>
       <c r="D35" t="n">
-        <v>23271.9289863597</v>
+        <v>37147.6049510278</v>
       </c>
       <c r="E35" t="n">
-        <v>127325.578887696</v>
+        <v>124675.490290319</v>
       </c>
       <c r="F35" t="n">
-        <v>148807.78472429</v>
+        <v>142994.08340058</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>62109.3487214805</v>
+        <v>77557.1613766935</v>
       </c>
       <c r="C36" t="n">
-        <v>32437.5352283303</v>
+        <v>52759.1091443912</v>
       </c>
       <c r="D36" t="n">
-        <v>20964.1264278826</v>
+        <v>33994.7925296412</v>
       </c>
       <c r="E36" t="n">
-        <v>126227.742202687</v>
+        <v>123652.384858934</v>
       </c>
       <c r="F36" t="n">
-        <v>148071.224908996</v>
+        <v>142416.701473684</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>64532.3288180871</v>
+        <v>79902.1269345014</v>
       </c>
       <c r="C37" t="n">
-        <v>35018.4642536246</v>
+        <v>55132.4201018599</v>
       </c>
       <c r="D37" t="n">
-        <v>23435.0316606089</v>
+        <v>35917.107982131</v>
       </c>
       <c r="E37" t="n">
-        <v>130317.052471819</v>
+        <v>127729.597393898</v>
       </c>
       <c r="F37" t="n">
-        <v>152523.833424132</v>
+        <v>146944.909513627</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
